--- a/test/res/appExcel/appConfig.xlsx
+++ b/test/res/appExcel/appConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiasy/Documents/sourceFrame/excelWorkFlow/test/res/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiasy/Documents/sourceFrame/excelWorkFlow/test/res/appExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="clientConfig" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="239">
   <si>
     <t>s</t>
   </si>
@@ -923,10 +923,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>package_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <rPh sb="0" eb="1">
       <t>ming'cheng</t>
@@ -934,10 +930,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>工程</t>
     <rPh sb="0" eb="1">
       <t>gong'cheng</t>
@@ -1080,9 +1072,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>秘钥名称</t>
     <rPh sb="0" eb="1">
       <t>mi'yao</t>
@@ -1222,10 +1211,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>game_name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>release_code_sign_identity</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1295,6 +1280,14 @@
   </si>
   <si>
     <t>GameB-mobile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1575,7 +1568,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1611,9 +1604,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1991,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -2006,11 +1996,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -2047,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>4</v>
@@ -2233,11 +2223,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3048,11 +3038,11 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="1:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3209,9 +3199,7 @@
   </sheetPr>
   <dimension ref="B1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -3226,11 +3214,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3260,12 +3248,12 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="19" customHeight="1">
       <c r="B6" s="5"/>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
@@ -3276,10 +3264,10 @@
         <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
@@ -3334,12 +3322,12 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
-      <c r="C14" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
@@ -3366,10 +3354,10 @@
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3377,10 +3365,10 @@
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3426,12 +3414,12 @@
     </row>
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
-      <c r="C24" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
@@ -3469,10 +3457,10 @@
     <row r="28" spans="2:6" ht="16">
       <c r="B28" s="3"/>
       <c r="C28" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -3507,12 +3495,12 @@
     </row>
     <row r="33" spans="2:6" ht="16">
       <c r="B33" s="3"/>
-      <c r="C33" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="C33" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="2:6" ht="16">
       <c r="B34" s="3"/>
@@ -3520,7 +3508,7 @@
         <v>162</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -3531,7 +3519,7 @@
         <v>163</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -3542,7 +3530,7 @@
         <v>164</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -3617,11 +3605,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -3643,7 +3631,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>140</v>
@@ -3651,12 +3639,12 @@
     </row>
     <row r="6" spans="2:6" ht="25">
       <c r="B6" s="5"/>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" ht="16">
       <c r="B7" s="3"/>
@@ -3667,10 +3655,10 @@
         <v>145</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16">
@@ -3725,12 +3713,12 @@
     </row>
     <row r="14" spans="2:6" ht="16">
       <c r="B14" s="3"/>
-      <c r="C14" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="2:6" ht="16">
       <c r="B15" s="3"/>
@@ -3757,10 +3745,10 @@
     <row r="17" spans="2:6" ht="16">
       <c r="B17" s="3"/>
       <c r="C17" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3768,10 +3756,10 @@
     <row r="18" spans="2:6" ht="16">
       <c r="B18" s="3"/>
       <c r="C18" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3817,12 +3805,12 @@
     </row>
     <row r="24" spans="2:6" ht="16">
       <c r="B24" s="3"/>
-      <c r="C24" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" ht="16">
       <c r="B25" s="3"/>
@@ -3876,10 +3864,10 @@
     </row>
     <row r="31" spans="2:6" ht="16">
       <c r="B31" s="3"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
     </row>
     <row r="32" spans="2:6" ht="16">
       <c r="B32" s="3"/>
@@ -3887,7 +3875,7 @@
         <v>162</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -3898,7 +3886,7 @@
         <v>163</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -3909,7 +3897,7 @@
         <v>164</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -3969,7 +3957,7 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -3984,11 +3972,11 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11"/>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
       <c r="D3" s="2"/>
@@ -4010,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>140</v>
@@ -4018,253 +4006,253 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>234</v>
+      <c r="D7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="18">
       <c r="B8" s="3"/>
-      <c r="C8" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>232</v>
+      <c r="C8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
-      <c r="C9" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>238</v>
+      <c r="C9" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
-      <c r="C10" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>240</v>
+      <c r="C10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
-      <c r="C11" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>240</v>
+      <c r="C11" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="3"/>
-      <c r="C13" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="2:6" ht="18">
       <c r="B14" s="3"/>
-      <c r="C14" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:6" ht="18">
       <c r="B15" s="3"/>
-      <c r="C15" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="C15" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" ht="18">
       <c r="B16" s="3"/>
-      <c r="C16" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6" ht="18">
       <c r="B17" s="3"/>
-      <c r="C17" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6" ht="18">
       <c r="B18" s="3"/>
-      <c r="C18" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" ht="25">
       <c r="B19" s="5"/>
-      <c r="C19" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="C19" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="2:6" ht="18">
       <c r="B20" s="3"/>
-      <c r="C20" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" ht="18">
       <c r="B21" s="3"/>
-      <c r="C21" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6" ht="18">
       <c r="B22" s="3"/>
-      <c r="C22" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6" ht="18">
       <c r="B23" s="3"/>
-      <c r="C23" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" ht="18">
       <c r="B24" s="3"/>
-      <c r="C24" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="C24" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" ht="18">
       <c r="B25" s="3"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="2:6" ht="18">
       <c r="B26" s="3"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" ht="18">
       <c r="B27" s="3"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="2:6" ht="25">
       <c r="B28" s="3"/>
@@ -4300,34 +4288,34 @@
   <cols>
     <col min="1" max="1" width="1.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="11">
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:6" ht="35">
-      <c r="C2" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="2:6" ht="19" customHeight="1">
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" ht="32">
@@ -4339,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>140</v>
@@ -4347,113 +4335,113 @@
     </row>
     <row r="6" spans="2:6" s="8" customFormat="1" ht="26">
       <c r="B6" s="5"/>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="2:6" ht="18">
       <c r="B7" s="3"/>
       <c r="C7" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>234</v>
+      <c r="D7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19" customHeight="1">
       <c r="B8" s="3"/>
-      <c r="C8" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>235</v>
+      <c r="C8" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="18">
       <c r="B9" s="3"/>
-      <c r="C9" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="C9" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="2:6" ht="18">
       <c r="B10" s="3"/>
-      <c r="C10" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="2:6" ht="18">
       <c r="B11" s="3"/>
-      <c r="C11" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="3"/>
-      <c r="C12" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="C12" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6" ht="18">
       <c r="B13" s="3"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="18">
       <c r="B14" s="3"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="18">
       <c r="B15" s="3"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="3"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="3"/>
     </row>
   </sheetData>
